--- a/Hoàng/Gói 1,2,3/GÓI 1,2,3.xlsx
+++ b/Hoàng/Gói 1,2,3/GÓI 1,2,3.xlsx
@@ -5,31 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA_TN\Hoàng\Gói 1,2,3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\Gói 1,2,3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91505F3D-7C3A-4193-B28D-904396429082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7729A-D148-44CE-8F4D-473198E8D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GÓI 4TR" sheetId="8" r:id="rId1"/>
-    <sheet name="GÓI 2TR5" sheetId="7" r:id="rId2"/>
-    <sheet name="GÓI 3TR" sheetId="6" r:id="rId3"/>
-    <sheet name="GÓI 2TR" sheetId="3" r:id="rId4"/>
-    <sheet name="GÓI 1TR" sheetId="2" r:id="rId5"/>
+    <sheet name="GÓI 1tr6" sheetId="9" r:id="rId1"/>
+    <sheet name="GÓI 1TR" sheetId="2" r:id="rId2"/>
+    <sheet name="GÓI 4TR" sheetId="8" r:id="rId3"/>
+    <sheet name="GÓI 2TR5" sheetId="7" r:id="rId4"/>
+    <sheet name="GÓI 3TR" sheetId="6" r:id="rId5"/>
+    <sheet name="GÓI 2TR" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'GÓI 1TR'!$A$1:$G$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'GÓI 2TR'!$A$1:$G$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'GÓI 2TR5'!$A$1:$G$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'GÓI 3TR'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'GÓI 4TR'!$A$1:$G$71</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GÓI 1TR'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GÓI 2TR'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'GÓI 2TR5'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GÓI 3TR'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'GÓI 4TR'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'GÓI 1TR'!$A$1:$G$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'GÓI 1tr6'!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'GÓI 2TR'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'GÓI 2TR5'!$A$1:$G$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'GÓI 3TR'!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'GÓI 4TR'!$A$1:$G$71</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'GÓI 1TR'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'GÓI 1tr6'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GÓI 2TR'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GÓI 2TR5'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GÓI 3TR'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GÓI 4TR'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -224,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="127">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN BỆNH VIỆN THIỆN NHÂN ĐÀ NẴNG 
 Số 276-278-280 Đống Đa - P Thanh Bình -Thành Phố Đà Nẵng 
@@ -600,6 +603,15 @@
   </si>
   <si>
     <t>Cholesterol rất có hại</t>
+  </si>
+  <si>
+    <t>Gói CBNV (VND)</t>
+  </si>
+  <si>
+    <t>Gói Gia đình (VND)</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +799,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1285,6 +1309,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,6 +1327,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,8 +1351,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1447,487 +1489,45 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{1DB10698-88ED-4EC7-8FBB-78FA247BE9E5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2561,6 +2161,104 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32159223-4456-4670-8527-5B908FDB4EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208225" y="304800"/>
+          <a:ext cx="2266832" cy="1301750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>881784</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8727149-34FC-4BA3-AEA9-2860DB2F21B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208225" y="304800"/>
+          <a:ext cx="2074600" cy="1317625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>951057</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CDA19D-8FAD-476E-B99F-E7B5E05A4E35}"/>
             </a:ext>
           </a:extLst>
@@ -2590,7 +2288,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2639,7 +2337,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2688,7 +2386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2709,55 +2407,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7284EDD3-2409-46E2-9519-4B7D2B1B5C9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="208225" y="304800"/>
-          <a:ext cx="2074600" cy="1317625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>208225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>881784</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8727149-34FC-4BA3-AEA9-2860DB2F21B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,13 +2697,1697 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1581F914-14C2-48D2-8BEB-CE0A7FC0F89D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="53.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" style="19" customWidth="1"/>
+    <col min="5" max="7" width="17.25" style="68" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="69" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="147"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="152"/>
+      <c r="H12" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="146"/>
+      <c r="I13" s="148"/>
+    </row>
+    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+      <c r="A14" s="135">
+        <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="142">
+        <v>200000</v>
+      </c>
+      <c r="F14" s="142">
+        <v>200000</v>
+      </c>
+      <c r="G14" s="142">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="107"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A20" s="28">
+        <f>IF(LEN(C20)=0,"",COUNTA($C$14:C20))</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="32">
+        <v>102000</v>
+      </c>
+      <c r="F20" s="32">
+        <v>102000</v>
+      </c>
+      <c r="G20" s="32">
+        <v>102000</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <f>IF(LEN(C21)=0,"",COUNTA($C$14:C21))</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="32">
+        <v>59000</v>
+      </c>
+      <c r="F21" s="32">
+        <v>59000</v>
+      </c>
+      <c r="G21" s="32">
+        <v>59000</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
+        <f>IF(LEN(C22)=0,"",COUNTA($C$14:C22))</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32">
+        <v>75000</v>
+      </c>
+      <c r="F22" s="32">
+        <v>75000</v>
+      </c>
+      <c r="G22" s="32">
+        <v>75000</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
+        <f>IF(LEN(C23)=0,"",COUNTA($C$14:C23))</f>
+        <v>5</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="32">
+        <v>27000</v>
+      </c>
+      <c r="F23" s="32">
+        <v>27000</v>
+      </c>
+      <c r="G23" s="32">
+        <v>27000</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
+        <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
+        <v>6</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="111">
+        <v>60000</v>
+      </c>
+      <c r="F24" s="111">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="111">
+        <v>60000</v>
+      </c>
+      <c r="H24" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
+        <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
+        <v>7</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
+        <f>IF(LEN(C26)=0,"",COUNTA($C$14:C26))</f>
+        <v>8</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="36">
+        <v>41000</v>
+      </c>
+      <c r="F26" s="36">
+        <v>41000</v>
+      </c>
+      <c r="G26" s="36">
+        <v>41000</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
+        <v>9</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="42">
+        <v>59000</v>
+      </c>
+      <c r="F27" s="42">
+        <v>59000</v>
+      </c>
+      <c r="G27" s="42">
+        <v>59000</v>
+      </c>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
+        <v>10</v>
+      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="42">
+        <v>59000</v>
+      </c>
+      <c r="F28" s="42">
+        <v>59000</v>
+      </c>
+      <c r="G28" s="42">
+        <v>59000</v>
+      </c>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A29" s="28">
+        <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
+        <v>11</v>
+      </c>
+      <c r="B29" s="115"/>
+      <c r="C29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="42">
+        <v>47000</v>
+      </c>
+      <c r="F29" s="42">
+        <v>47000</v>
+      </c>
+      <c r="G29" s="42">
+        <v>47000</v>
+      </c>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
+        <v>12</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="42">
+        <v>41000</v>
+      </c>
+      <c r="F30" s="42">
+        <v>41000</v>
+      </c>
+      <c r="G30" s="42">
+        <v>41000</v>
+      </c>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28">
+        <f>IF(LEN(C31)=0,"",COUNTA($C$14:C31))</f>
+        <v>13</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="45">
+        <v>79000</v>
+      </c>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
+        <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
+        <v>14</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="42">
+        <v>41000</v>
+      </c>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
+        <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
+        <v>15</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="36">
+        <v>230000</v>
+      </c>
+      <c r="F33" s="36">
+        <v>230000</v>
+      </c>
+      <c r="G33" s="41">
+        <v>230000</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <f>IF(LEN(C34)=0,"",COUNTA($C$14:C34))</f>
+        <v>16</v>
+      </c>
+      <c r="B34" s="70"/>
+      <c r="C34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="36">
+        <v>250000</v>
+      </c>
+      <c r="F34" s="155"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A35" s="28">
+        <f>IF(LEN(C35)=0,"",COUNTA($C$14:C35))</f>
+        <v>17</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="41">
+        <v>230000</v>
+      </c>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.35">
+      <c r="A36" s="28">
+        <f>IF(LEN(C36)=0,"",COUNTA($C$14:C36))</f>
+        <v>18</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="21">
+        <f>SUM(E14:E35)</f>
+        <v>1600000</v>
+      </c>
+      <c r="F37" s="21">
+        <f>SUM(F14:F35)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G37" s="21">
+        <f>SUM(G14:G35)</f>
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="1:9" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
+    </row>
+    <row r="40" spans="1:9" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="56"/>
+      <c r="B40" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+    </row>
+    <row r="41" spans="1:9" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="1:9" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57"/>
+      <c r="B42" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43" spans="1:9" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="1:9" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="54"/>
+      <c r="B46" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="65"/>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="54"/>
+      <c r="B48" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D1:H5"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A10:H11"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C49:C1048576 C1:C11 C32:C38 C14:C26 C40:C47">
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C38 C1:C11 C14:C26 C40:C1048576">
+    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C31">
+    <cfRule type="duplicateValues" dxfId="57" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="163" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A5CCC-5F5E-4E8A-A49D-9590242E99F7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L46"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="53.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="48.58203125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="13.4140625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="69" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="134"/>
+      <c r="D13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A14" s="135">
+        <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
+        <v>1</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="142">
+        <v>200000</v>
+      </c>
+      <c r="F14" s="142">
+        <v>200000</v>
+      </c>
+      <c r="G14" s="107"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A20" s="28">
+        <f>IF(LEN(C20)=0,"",COUNTA($C$14:C20))</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="32">
+        <v>102000</v>
+      </c>
+      <c r="F20" s="32">
+        <v>102000</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
+        <f>IF(LEN(C21)=0,"",COUNTA($C$14:C21))</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="32">
+        <v>59000</v>
+      </c>
+      <c r="F21" s="32">
+        <v>59000</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
+        <f>IF(LEN(C22)=0,"",COUNTA($C$14:C22))</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32">
+        <v>75000</v>
+      </c>
+      <c r="F22" s="32">
+        <v>75000</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
+        <f>IF(LEN(C23)=0,"",COUNTA($C$14:C23))</f>
+        <v>5</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="32">
+        <v>27000</v>
+      </c>
+      <c r="F23" s="32">
+        <v>27000</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
+        <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
+        <v>6</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="111">
+        <v>60000</v>
+      </c>
+      <c r="F24" s="111">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
+        <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
+        <v>7</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
+        <f>IF(LEN(C26)=0,"",COUNTA($C$14:C26))</f>
+        <v>8</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="36">
+        <v>41000</v>
+      </c>
+      <c r="F26" s="36">
+        <v>41000</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
+        <v>9</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="42">
+        <v>59000</v>
+      </c>
+      <c r="F27" s="42">
+        <v>59000</v>
+      </c>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
+        <v>10</v>
+      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="42">
+        <v>59000</v>
+      </c>
+      <c r="F28" s="42">
+        <v>59000</v>
+      </c>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A29" s="28">
+        <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
+        <v>11</v>
+      </c>
+      <c r="B29" s="115"/>
+      <c r="C29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="42">
+        <v>47000</v>
+      </c>
+      <c r="F29" s="42">
+        <v>47000</v>
+      </c>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
+        <v>12</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="42">
+        <v>41000</v>
+      </c>
+      <c r="F30" s="42">
+        <v>41000</v>
+      </c>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="28">
+        <f>IF(LEN(C31)=0,"",COUNTA($C$14:C31))</f>
+        <v>13</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="75">
+        <v>230000</v>
+      </c>
+      <c r="F31" s="75">
+        <v>230000</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
+        <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
+        <v>14</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="21">
+        <f>SUM(E14:E32)</f>
+        <v>1000000</v>
+      </c>
+      <c r="F33" s="21">
+        <f>SUM(F14:F32)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="54"/>
+    </row>
+    <row r="36" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="56"/>
+      <c r="B36" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+    </row>
+    <row r="37" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+    </row>
+    <row r="38" spans="1:8" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57"/>
+      <c r="B38" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+    </row>
+    <row r="39" spans="1:8" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="54"/>
+      <c r="B40" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="54"/>
+      <c r="B42" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
+      <c r="B44" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="54"/>
+      <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="163" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDB8A-AE33-4C4A-8FF0-8AE1ACCBE240}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -3075,48 +4408,48 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -3128,15 +4461,15 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -3159,29 +4492,29 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -3189,13 +4522,13 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -3215,10 +4548,10 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -3234,86 +4567,86 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="129">
+      <c r="A14" s="135">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="142">
         <v>200000</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="142">
         <v>200000</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="102"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="102"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="102"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="102"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="135"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -3413,7 +4746,7 @@
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -3422,13 +4755,13 @@
       <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="111">
         <v>60000</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="111">
         <v>60000</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="27"/>
@@ -3438,16 +4771,16 @@
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="108"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
@@ -3478,7 +4811,7 @@
         <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
         <v>9</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="115" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -3500,7 +4833,7 @@
         <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
         <v>10</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
@@ -3520,7 +4853,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C29:C$34))</f>
         <v>6</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="34" t="s">
         <v>122</v>
       </c>
@@ -3540,7 +4873,7 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
         <v>12</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
         <v>101</v>
       </c>
@@ -3560,7 +4893,7 @@
         <f>IF(LEN(C31)=0,"",COUNTA($C$14:C31))</f>
         <v>13</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="34" t="s">
         <v>56</v>
       </c>
@@ -3600,7 +4933,7 @@
         <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
         <v>15</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -3623,7 +4956,7 @@
         <f>IF(LEN(C34)=0,"",COUNTA($C$14:C34))</f>
         <v>16</v>
       </c>
-      <c r="B34" s="94"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="34" t="s">
         <v>51</v>
       </c>
@@ -3809,7 +5142,7 @@
         <f>IF(LEN(C43)=0,"",COUNTA($C$35:C43))</f>
         <v>9</v>
       </c>
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="99" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="24" t="s">
@@ -3824,7 +5157,7 @@
       <c r="F43" s="45">
         <v>30000</v>
       </c>
-      <c r="G43" s="140" t="s">
+      <c r="G43" s="100" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3833,7 +5166,7 @@
         <f>IF(LEN(C44)=0,"",COUNTA($C$35:C44))</f>
         <v>10</v>
       </c>
-      <c r="B44" s="139"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="24" t="s">
         <v>108</v>
       </c>
@@ -3846,20 +5179,20 @@
       <c r="F44" s="45">
         <v>20000</v>
       </c>
-      <c r="G44" s="141"/>
+      <c r="G44" s="101"/>
     </row>
     <row r="45" spans="1:10" s="40" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
         <f>IF(LEN(C45)=0,"",COUNTA($C$14:C45))</f>
         <v>27</v>
       </c>
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="91" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="103" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="32">
@@ -3868,7 +5201,7 @@
       <c r="F45" s="32">
         <v>137000</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="105" t="s">
         <v>65</v>
       </c>
       <c r="H45" s="39"/>
@@ -3878,18 +5211,18 @@
         <f>IF(LEN(C46)=0,"",COUNTA($C$14:C46))</f>
         <v>28</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="98"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="32">
         <v>137000</v>
       </c>
       <c r="F46" s="32">
         <v>137000</v>
       </c>
-      <c r="G46" s="100"/>
+      <c r="G46" s="106"/>
       <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
@@ -4035,7 +5368,7 @@
         <f>IF(LEN(C54)=0,"",COUNTA($C$35:C54))</f>
         <v>20</v>
       </c>
-      <c r="B54" s="143"/>
+      <c r="B54" s="86"/>
       <c r="C54" s="30" t="s">
         <v>113</v>
       </c>
@@ -4055,7 +5388,7 @@
         <f>IF(LEN(C55)=0,"",COUNTA($C$14:C55))</f>
         <v>37</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="91" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="24" t="s">
@@ -4078,7 +5411,7 @@
         <f>IF(LEN(C56)=0,"",COUNTA($C$14:C56))</f>
         <v>38</v>
       </c>
-      <c r="B56" s="142"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="24" t="s">
         <v>76</v>
       </c>
@@ -4116,12 +5449,12 @@
       <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="91"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="21">
         <f>SUM(E14:E57)</f>
         <v>3981000</v>
@@ -4143,70 +5476,70 @@
       <c r="G59" s="53"/>
     </row>
     <row r="60" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="54"/>
     </row>
     <row r="61" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="56"/>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
     </row>
     <row r="62" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="56"/>
-      <c r="B62" s="86" t="s">
+      <c r="B62" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:8" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57"/>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:8" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="59"/>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
     </row>
     <row r="65" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="54"/>
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
     </row>
     <row r="66" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="54"/>
@@ -4243,10 +5576,10 @@
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="54"/>
-      <c r="B69" s="87" t="s">
+      <c r="B69" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="90" t="s">
         <v>92</v>
       </c>
       <c r="D69" s="61"/>
@@ -4278,26 +5611,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -4309,55 +5622,75 @@
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
   </mergeCells>
   <conditionalFormatting sqref="C70:C1048576 C1:C26 C33:C35 C57:C68 C47:C52">
-    <cfRule type="duplicateValues" dxfId="40" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C1048576 C33:C35 C1:C26 C47:C52">
-    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C32">
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C56">
-    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C56">
-    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C46 C39:C40">
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="34" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C38">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C46">
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4372,7 +5705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC523F6C-B9F9-4D1A-93EB-4AD8B352114F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4400,48 +5733,48 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -4453,15 +5786,15 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -4484,29 +5817,29 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -4514,13 +5847,13 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -4540,10 +5873,10 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -4559,86 +5892,86 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="129">
+      <c r="A14" s="135">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="142">
         <v>200000</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="142">
         <v>200000</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="102"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="102"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="102"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="102"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="135"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -4738,7 +6071,7 @@
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -4747,13 +6080,13 @@
       <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="111">
         <v>60000</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="111">
         <v>60000</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="27"/>
@@ -4763,16 +6096,16 @@
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="108"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
@@ -4803,7 +6136,7 @@
         <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
         <v>9</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="115" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -4825,7 +6158,7 @@
         <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
         <v>10</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
@@ -4845,7 +6178,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
         <v>11</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
@@ -4865,7 +6198,7 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
         <v>12</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
         <v>56</v>
       </c>
@@ -4905,7 +6238,7 @@
         <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
         <v>14</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -4928,7 +6261,7 @@
         <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
         <v>15</v>
       </c>
-      <c r="B33" s="94"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="34" t="s">
         <v>51</v>
       </c>
@@ -5053,13 +6386,13 @@
         <f>IF(LEN(C39)=0,"",COUNTA($C$14:C39))</f>
         <v>21</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="91" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="97" t="s">
+      <c r="D39" s="103" t="s">
         <v>64</v>
       </c>
       <c r="E39" s="32">
@@ -5068,7 +6401,7 @@
       <c r="F39" s="32">
         <v>137000</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="105" t="s">
         <v>65</v>
       </c>
       <c r="H39" s="39"/>
@@ -5078,18 +6411,18 @@
         <f>IF(LEN(C40)=0,"",COUNTA($C$14:C40))</f>
         <v>22</v>
       </c>
-      <c r="B40" s="96"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="98"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="32">
         <v>137000</v>
       </c>
       <c r="F40" s="32">
         <v>137000</v>
       </c>
-      <c r="G40" s="100"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
@@ -5232,12 +6565,12 @@
       <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="95"/>
       <c r="E48" s="21">
         <f>SUM(E14:E47)</f>
         <v>2497000</v>
@@ -5259,70 +6592,70 @@
       <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="54"/>
     </row>
     <row r="51" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="56"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
     </row>
     <row r="52" spans="1:7" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="56"/>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
     </row>
     <row r="53" spans="1:7" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57"/>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
     </row>
     <row r="54" spans="1:7" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="59"/>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
     </row>
     <row r="55" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="54"/>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="54"/>
@@ -5359,10 +6692,10 @@
     </row>
     <row r="59" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="54"/>
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="90" t="s">
         <v>92</v>
       </c>
       <c r="D59" s="61"/>
@@ -5394,16 +6727,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="D1:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="D39:D40"/>
@@ -5414,54 +6745,56 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="C60:C1048576 C1:C26 C32:C34 C47:C58 C41:C45">
-    <cfRule type="duplicateValues" dxfId="54" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:C1048576 C32:C34 C1:C26 C41:C45">
-    <cfRule type="duplicateValues" dxfId="53" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="duplicateValues" dxfId="52" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C40">
-    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C37">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C40">
-    <cfRule type="duplicateValues" dxfId="41" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5476,7 +6809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB46BB77-4FF4-40FF-B6A5-B8A4E7D75F63}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5504,48 +6837,48 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -5557,15 +6890,15 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5588,29 +6921,29 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -5618,13 +6951,13 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -5644,10 +6977,10 @@
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -5663,86 +6996,86 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="129">
+      <c r="A14" s="135">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="142">
         <v>200000</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="142">
         <v>200000</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="102"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="102"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="102"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="102"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="135"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -5842,7 +7175,7 @@
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -5851,13 +7184,13 @@
       <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="111">
         <v>60000</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="111">
         <v>60000</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="27"/>
@@ -5867,16 +7200,16 @@
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="108"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
@@ -5907,7 +7240,7 @@
         <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
         <v>9</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="115" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -5929,7 +7262,7 @@
         <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
         <v>10</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
@@ -5949,7 +7282,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
         <v>11</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
@@ -5969,7 +7302,7 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
         <v>12</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
         <v>56</v>
       </c>
@@ -6009,7 +7342,7 @@
         <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
         <v>14</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -6032,7 +7365,7 @@
         <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
         <v>15</v>
       </c>
-      <c r="B33" s="94"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="34" t="s">
         <v>51</v>
       </c>
@@ -6156,7 +7489,7 @@
         <f>IF(LEN(C39)=0,"",COUNTA($C$34:C39))</f>
         <v>6</v>
       </c>
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="99" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -6171,7 +7504,7 @@
       <c r="F39" s="45">
         <v>30000</v>
       </c>
-      <c r="G39" s="140" t="s">
+      <c r="G39" s="100" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6180,7 +7513,7 @@
         <f>IF(LEN(C40)=0,"",COUNTA($C$34:C40))</f>
         <v>7</v>
       </c>
-      <c r="B40" s="139"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="24" t="s">
         <v>108</v>
       </c>
@@ -6193,20 +7526,20 @@
       <c r="F40" s="45">
         <v>20000</v>
       </c>
-      <c r="G40" s="141"/>
+      <c r="G40" s="101"/>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <f>IF(LEN(C41)=0,"",COUNTA($C$14:C41))</f>
         <v>23</v>
       </c>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="91" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="103" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="32">
@@ -6215,7 +7548,7 @@
       <c r="F41" s="32">
         <v>137000</v>
       </c>
-      <c r="G41" s="99" t="s">
+      <c r="G41" s="105" t="s">
         <v>65</v>
       </c>
       <c r="H41" s="39"/>
@@ -6225,18 +7558,18 @@
         <f>IF(LEN(C42)=0,"",COUNTA($C$14:C42))</f>
         <v>24</v>
       </c>
-      <c r="B42" s="96"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="98"/>
+      <c r="D42" s="104"/>
       <c r="E42" s="32">
         <v>137000</v>
       </c>
       <c r="F42" s="32">
         <v>137000</v>
       </c>
-      <c r="G42" s="100"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.35">
@@ -6362,7 +7695,7 @@
         <f>IF(LEN(C49)=0,"",COUNTA($C$14:C49))</f>
         <v>31</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="91" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -6385,7 +7718,7 @@
         <f>IF(LEN(C50)=0,"",COUNTA($C$14:C50))</f>
         <v>32</v>
       </c>
-      <c r="B50" s="142"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="24" t="s">
         <v>76</v>
       </c>
@@ -6423,12 +7756,12 @@
       <c r="H51" s="27"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="91"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="21">
         <f>SUM(E14:E51)</f>
         <v>3000000</v>
@@ -6450,70 +7783,70 @@
       <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="54"/>
     </row>
     <row r="55" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="56"/>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="56"/>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
     </row>
     <row r="57" spans="1:8" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
     </row>
     <row r="58" spans="1:8" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="59"/>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
     </row>
     <row r="59" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="54"/>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
     </row>
     <row r="60" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="54"/>
@@ -6550,10 +7883,10 @@
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="54"/>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="90" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="61"/>
@@ -6585,21 +7918,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="D1:G5"/>
     <mergeCell ref="A7:G7"/>
@@ -6616,6 +7934,21 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="B57:G57"/>
   </mergeCells>
   <conditionalFormatting sqref="C64:C1048576 C1:C26 C32:C34 C51:C62 C43:C47">
     <cfRule type="duplicateValues" dxfId="21" priority="23"/>
@@ -6676,15 +8009,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F801DFA-B04B-4E6B-AE49-39ABF3C321E0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6704,48 +8037,48 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -6757,15 +8090,15 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -6788,29 +8121,29 @@
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -6818,13 +8151,13 @@
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -6840,14 +8173,14 @@
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -6863,86 +8196,86 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="129">
+      <c r="A14" s="135">
         <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
         <v>1</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="139" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="136">
+      <c r="E14" s="142">
         <v>200000</v>
       </c>
-      <c r="F14" s="136">
+      <c r="F14" s="142">
         <v>200000</v>
       </c>
-      <c r="G14" s="101"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="102"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="102"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="108"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="102"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="108"/>
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="102"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="135"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -7042,7 +8375,7 @@
         <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
         <v>6</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="110" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -7051,13 +8384,13 @@
       <c r="D24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="111">
         <v>60000</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="111">
         <v>60000</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="27"/>
@@ -7067,16 +8400,16 @@
         <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
         <v>7</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="108"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
@@ -7107,7 +8440,7 @@
         <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
         <v>9</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="115" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -7129,7 +8462,7 @@
         <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
         <v>10</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="34" t="s">
         <v>54</v>
       </c>
@@ -7149,7 +8482,7 @@
         <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
         <v>11</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="34" t="s">
         <v>101</v>
       </c>
@@ -7169,7 +8502,7 @@
         <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
         <v>12</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
         <v>56</v>
       </c>
@@ -7209,7 +8542,7 @@
         <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
         <v>14</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="97" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -7232,7 +8565,7 @@
         <f>IF(LEN(C33)=0,"",COUNTA($C$14:C33))</f>
         <v>15</v>
       </c>
-      <c r="B33" s="94"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="34" t="s">
         <v>51</v>
       </c>
@@ -7431,12 +8764,12 @@
       <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="91"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="21">
         <f>SUM(E14:E41)</f>
         <v>2000000</v>
@@ -7458,70 +8791,70 @@
       <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="54"/>
     </row>
     <row r="46" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="56"/>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
     </row>
     <row r="47" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="56"/>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:8" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="57"/>
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="59"/>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
     </row>
     <row r="50" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="54"/>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
     </row>
     <row r="51" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="54"/>
@@ -7558,10 +8891,10 @@
     </row>
     <row r="54" spans="1:7" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="54"/>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="88" t="s">
+      <c r="C54" s="90" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="61"/>
@@ -7593,15 +8926,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="A43:D43"/>
@@ -7618,6 +8942,15 @@
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
   </mergeCells>
   <conditionalFormatting sqref="C55:C1048576 C1:C26 C35:C53 C32:C33">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
@@ -7641,757 +8974,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A5CCC-5F5E-4E8A-A49D-9590242E99F7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L46"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.58203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="53.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="48.58203125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="13.4140625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="69" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="112"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112"/>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="115"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="125"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A14" s="129">
-        <f>IF(LEN(C14)=0,"",COUNTA($C$14:C14))</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="136">
-        <v>200000</v>
-      </c>
-      <c r="F14" s="136">
-        <v>200000</v>
-      </c>
-      <c r="G14" s="101"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="130"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="131"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
-        <f>IF(LEN(C20)=0,"",COUNTA($C$14:C20))</f>
-        <v>2</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="32">
-        <v>102000</v>
-      </c>
-      <c r="F20" s="32">
-        <v>102000</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
-        <f>IF(LEN(C21)=0,"",COUNTA($C$14:C21))</f>
-        <v>3</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="32">
-        <v>59000</v>
-      </c>
-      <c r="F21" s="32">
-        <v>59000</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
-        <f>IF(LEN(C22)=0,"",COUNTA($C$14:C22))</f>
-        <v>4</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="32">
-        <v>75000</v>
-      </c>
-      <c r="F22" s="32">
-        <v>75000</v>
-      </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
-        <f>IF(LEN(C23)=0,"",COUNTA($C$14:C23))</f>
-        <v>5</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="32">
-        <v>27000</v>
-      </c>
-      <c r="F23" s="32">
-        <v>27000</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
-        <f>IF(LEN(C24)=0,"",COUNTA($C$14:C24))</f>
-        <v>6</v>
-      </c>
-      <c r="B24" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="105">
-        <v>60000</v>
-      </c>
-      <c r="F24" s="105">
-        <v>60000</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
-        <f>IF(LEN(C25)=0,"",COUNTA($C$14:C25))</f>
-        <v>7</v>
-      </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
-        <f>IF(LEN(C26)=0,"",COUNTA($C$14:C26))</f>
-        <v>8</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="36">
-        <v>41000</v>
-      </c>
-      <c r="F26" s="36">
-        <v>41000</v>
-      </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
-        <f>IF(LEN(C27)=0,"",COUNTA($C$14:C27))</f>
-        <v>9</v>
-      </c>
-      <c r="B27" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="42">
-        <v>59000</v>
-      </c>
-      <c r="F27" s="42">
-        <v>59000</v>
-      </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
-        <f>IF(LEN(C28)=0,"",COUNTA($C$14:C28))</f>
-        <v>10</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="42">
-        <v>59000</v>
-      </c>
-      <c r="F28" s="42">
-        <v>59000</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
-        <f>IF(LEN(C29)=0,"",COUNTA($C$14:C29))</f>
-        <v>11</v>
-      </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="42">
-        <v>47000</v>
-      </c>
-      <c r="F29" s="42">
-        <v>47000</v>
-      </c>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
-        <f>IF(LEN(C30)=0,"",COUNTA($C$14:C30))</f>
-        <v>12</v>
-      </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="42">
-        <v>41000</v>
-      </c>
-      <c r="F30" s="42">
-        <v>41000</v>
-      </c>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
-        <f>IF(LEN(C31)=0,"",COUNTA($C$14:C31))</f>
-        <v>13</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="75">
-        <v>230000</v>
-      </c>
-      <c r="F31" s="75">
-        <v>230000</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
-        <f>IF(LEN(C32)=0,"",COUNTA($C$14:C32))</f>
-        <v>14</v>
-      </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="21">
-        <f>SUM(E14:E32)</f>
-        <v>1000000</v>
-      </c>
-      <c r="F33" s="21">
-        <f>SUM(F14:F32)</f>
-        <v>1000000</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="54"/>
-    </row>
-    <row r="36" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-    </row>
-    <row r="37" spans="1:8" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-    </row>
-    <row r="38" spans="1:8" s="58" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-    </row>
-    <row r="39" spans="1:8" s="60" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-    </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="D1:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E14:E19"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="163" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>